--- a/Algoritmos_Resueltos/Algoritmos Resueltos.xlsx
+++ b/Algoritmos_Resueltos/Algoritmos Resueltos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FES\ICO\5 Diseño y Analisis de Algoritmos\Bibliografia\Algoritmos Resueltos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\007\cursos\algoritmos\Algoritmos_Resueltos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>2P1</t>
   </si>
@@ -447,31 +447,13 @@
   </si>
   <si>
     <t>3Ej16</t>
-  </si>
-  <si>
-    <t>viernes</t>
-  </si>
-  <si>
-    <t>domingo</t>
-  </si>
-  <si>
-    <t>lunes</t>
-  </si>
-  <si>
-    <t>martes</t>
-  </si>
-  <si>
-    <t>miércoles</t>
-  </si>
-  <si>
-    <t>jueves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -482,19 +464,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -515,45 +484,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -568,41 +508,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -946,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P32"/>
+  <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K6" sqref="J6:K12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="A26:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,709 +879,638 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="4"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="4"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="J3" s="7"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="4"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="4"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="17">
-        <v>43240</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="4"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="17">
-        <v>43241</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="17">
-        <v>43242</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="17">
-        <v>43243</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="17">
-        <v>43244</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11" t="s">
+      <c r="F12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="17">
-        <v>43245</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="16" t="s">
+      <c r="H14" s="6"/>
+      <c r="I14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="16" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="9"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="4"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="16" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="9"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
+      <c r="J16" s="7"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="16" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="10"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
+      <c r="J17" s="7"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="16" t="s">
+      <c r="H18" s="6"/>
+      <c r="I18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="11"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
+      <c r="J18" s="7"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="16" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="5" t="s">
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="16" t="s">
+      <c r="H20" s="6"/>
+      <c r="I20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="16" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="14" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="2" t="s">
+      <c r="H22" s="6"/>
+      <c r="I22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="5" t="s">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="14" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="6"/>
+      <c r="I23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="5" t="s">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="14" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="2"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
-        <v>15</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>18</v>
-      </c>
-      <c r="H26" s="8">
-        <v>8</v>
-      </c>
-      <c r="I26" s="8">
-        <v>21</v>
-      </c>
-      <c r="J26">
-        <f>SUM(C26:I26)</f>
-        <v>62</v>
-      </c>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I27">
-        <v>5</v>
-      </c>
-      <c r="J27">
-        <f>J26/I27</f>
-        <v>12.4</v>
-      </c>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P26:P30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
